--- a/Running projects/NASTP Sierra 3rd Floor/HVAC BOQ_Third Floor.xlsx
+++ b/Running projects/NASTP Sierra 3rd Floor/HVAC BOQ_Third Floor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\3rd Floor NASTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP Sierra 3rd Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B339FA-860F-412E-8DD2-AFC0E897C702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1372E6C6-C9E8-40F2-856E-EDCAEC44E6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -923,23 +923,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -958,15 +943,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1108,25 +1084,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1146,13 +1112,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1167,18 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,16 +1140,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,15 +1155,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,6 +1179,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,35 +1200,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1585,178 +1598,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF40076-0BC4-4EDE-9CDF-8072258376F1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="104" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="76" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+      <c r="A3" s="77">
         <v>230010</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="122" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
+      <c r="A4" s="77">
         <v>230100</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="122" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
+      <c r="A5" s="77">
         <v>230500</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="123">
         <v>5334040</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
+      <c r="A6" s="77">
         <v>230700</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="123">
         <v>4532075</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="77">
         <v>230800</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="123">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+      <c r="A8" s="77">
         <v>230900</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="122" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="77">
         <v>232100</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="123">
         <v>3999630</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+      <c r="A10" s="77">
         <v>233100</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="123">
         <v>4097000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="77">
         <v>233300</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="123">
         <v>121000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+      <c r="A12" s="77">
         <v>233700</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="123">
         <v>360000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100">
+      <c r="A13" s="78">
         <v>238219</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="123">
         <v>90000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="124">
         <v>18633745</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102">
+      <c r="A17" s="79">
         <v>1</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="C17" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1764,7 +1777,8 @@
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1775,4097 +1789,4090 @@
   </sheetPr>
   <dimension ref="A6:AH205"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="8" customWidth="1"/>
-    <col min="3" max="7" width="16.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17" style="6" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="22.7109375" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="16.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="22.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113" t="s">
+      <c r="K8" s="95"/>
+      <c r="L8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="119" t="s">
+      <c r="M8" s="95"/>
+      <c r="N8" s="96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="57" t="s">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="57" t="s">
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="119"/>
-    </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="N9" s="96"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
         <v>1</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="51">
         <v>2</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="51">
         <v>5</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="51">
         <v>6</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="51">
         <v>7</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="51">
         <v>8</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="51">
         <v>9</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="52">
         <v>3</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="52">
         <v>4</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="52">
         <v>5</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="52">
         <v>6</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="52">
         <v>7</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="52">
         <v>8</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="54">
         <v>230010</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>5000</v>
       </c>
-      <c r="E12" s="27" t="e">
+      <c r="E12" s="17" t="e">
         <f>C12*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="27" t="e">
+      <c r="F12" s="17" t="e">
         <f>D12*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="27" t="e">
+      <c r="G12" s="17" t="e">
         <f>F12+E12</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="100" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
         <v>5000</v>
       </c>
-      <c r="E13" s="27" t="e">
+      <c r="E13" s="17" t="e">
         <f>C13*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="27" t="e">
+      <c r="F13" s="17" t="e">
         <f>D13*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="27" t="e">
+      <c r="G13" s="17" t="e">
         <f>F13+E13</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="100" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="70"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="70"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="102"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
+      <c r="A16" s="59">
         <v>230100</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="70"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="102"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="68">
+      <c r="A17" s="58">
         <v>230113</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="70"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="102"/>
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="17">
         <v>25000</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27" t="e">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="e">
         <f>C18*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="27" t="e">
+      <c r="F18" s="17" t="e">
         <f>D18*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="17" t="e">
         <f>F18+E18</f>
         <v>#REF!</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="18">
         <v>1</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="69" t="s">
+      <c r="N18" s="100" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="71">
+      <c r="A19" s="59">
         <v>230500</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="70"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="102"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="71">
+      <c r="A20" s="59">
         <v>230513.13</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="70"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="102"/>
     </row>
     <row r="21" spans="1:14" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="17">
         <v>35000</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="17">
         <v>5000</v>
       </c>
-      <c r="E21" s="27" t="e">
+      <c r="E21" s="17" t="e">
         <f>C21*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F21" s="27" t="e">
+      <c r="F21" s="17" t="e">
         <f>D21*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G21" s="27" t="e">
+      <c r="G21" s="17" t="e">
         <f>F21+E21</f>
         <v>#REF!</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="18">
         <v>8</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="99">
         <v>70000</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="99">
         <v>1500</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="99">
         <f>J21*H21</f>
         <v>560000</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="99">
         <f>K21*H21</f>
         <v>12000</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="103">
         <f>L21+M21</f>
         <v>572000</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="71">
+      <c r="A22" s="59">
         <v>230513.16</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="72"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="103"/>
     </row>
     <row r="23" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="17">
         <v>40000</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="17">
         <v>15000</v>
       </c>
-      <c r="E23" s="27" t="e">
+      <c r="E23" s="17" t="e">
         <f>C23*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F23" s="27" t="e">
+      <c r="F23" s="17" t="e">
         <f>D23*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G23" s="27" t="e">
+      <c r="G23" s="17" t="e">
         <f>F23+E23</f>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="18">
         <v>1</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="105">
         <v>300000</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="99">
         <v>50000</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="99">
         <f t="shared" ref="L23:L85" si="0">J23*H23</f>
         <v>300000</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="99">
         <f t="shared" ref="M23:M85" si="1">K23*H23</f>
         <v>50000</v>
       </c>
-      <c r="N23" s="72">
+      <c r="N23" s="103">
         <f t="shared" ref="N23:N85" si="2">L23+M23</f>
         <v>350000</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="73">
+      <c r="A24" s="60">
         <v>230519</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="72"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="103"/>
     </row>
     <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="72"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="103"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="72"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="103"/>
     </row>
     <row r="27" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="24">
         <v>9000</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="24">
         <v>500</v>
       </c>
-      <c r="E27" s="27" t="e">
+      <c r="E27" s="17" t="e">
         <f>C27*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F27" s="27" t="e">
+      <c r="F27" s="17" t="e">
         <f>D27*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="27" t="e">
+      <c r="G27" s="17" t="e">
         <f t="shared" ref="G27:G30" si="3">F27+E27</f>
         <v>#REF!</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="99">
         <v>1000</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="99">
         <f t="shared" si="0"/>
         <v>164800</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="99">
         <f>K27*H27</f>
         <v>16000</v>
       </c>
-      <c r="N27" s="72">
+      <c r="N27" s="103">
         <f t="shared" si="2"/>
         <v>180800</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="24">
         <v>7000</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="24">
         <v>500</v>
       </c>
-      <c r="E28" s="27" t="e">
+      <c r="E28" s="17" t="e">
         <f>C28*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="27" t="e">
+      <c r="F28" s="17" t="e">
         <f>D28*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="27" t="e">
+      <c r="G28" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="99">
         <v>1000</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="99">
         <f t="shared" si="0"/>
         <v>152000</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="99">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N28" s="72">
+      <c r="N28" s="103">
         <f t="shared" si="2"/>
         <v>168000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="24">
         <v>1800</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="24">
         <v>300</v>
       </c>
-      <c r="E29" s="27" t="e">
+      <c r="E29" s="17" t="e">
         <f>C29*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="27" t="e">
+      <c r="F29" s="17" t="e">
         <f>D29*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="27" t="e">
+      <c r="G29" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="99">
         <v>1000</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="99">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="99">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N29" s="72">
+      <c r="N29" s="103">
         <f t="shared" si="2"/>
         <v>48000</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="24">
         <v>3500</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="24">
         <v>500</v>
       </c>
-      <c r="E30" s="27" t="e">
+      <c r="E30" s="17" t="e">
         <f>C30*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="27" t="e">
+      <c r="F30" s="17" t="e">
         <f>D30*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="27" t="e">
+      <c r="G30" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="99">
         <v>1000</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="99">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="99">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N30" s="72">
+      <c r="N30" s="103">
         <f t="shared" si="2"/>
         <v>176000</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73">
+      <c r="A31" s="60">
         <v>230523</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="72"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="103"/>
     </row>
     <row r="32" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="72"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="103"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="72"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="103"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="72"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="103"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="28">
         <v>14000</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="28">
         <v>1000</v>
       </c>
-      <c r="E35" s="27" t="e">
+      <c r="E35" s="17" t="e">
         <f>C35*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F35" s="27" t="e">
+      <c r="F35" s="17" t="e">
         <f>D35*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G35" s="27" t="e">
+      <c r="G35" s="17" t="e">
         <f t="shared" ref="G35" si="4">F35+E35</f>
         <v>#REF!</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="107">
         <v>1500</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="99">
         <f t="shared" si="0"/>
         <v>376000</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="99">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="N35" s="72">
+      <c r="N35" s="103">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="35" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="107">
         <v>1500</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36" s="99">
         <f t="shared" si="0"/>
         <v>133000</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="99">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="N36" s="72">
+      <c r="N36" s="103">
         <f t="shared" si="2"/>
         <v>136000</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="72"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="103"/>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="28">
         <v>19000</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="28">
         <v>1500</v>
       </c>
-      <c r="E38" s="27" t="e">
+      <c r="E38" s="17" t="e">
         <f>C38*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F38" s="27" t="e">
+      <c r="F38" s="17" t="e">
         <f>D38*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G38" s="27" t="e">
+      <c r="G38" s="17" t="e">
         <f t="shared" ref="G38" si="5">F38+E38</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="107">
         <v>1500</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="99">
         <f t="shared" si="0"/>
         <v>396000</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="99">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N38" s="72">
+      <c r="N38" s="103">
         <f t="shared" si="2"/>
         <v>408000</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="72"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="103"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="28">
         <v>120000</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="28">
         <v>2500</v>
       </c>
-      <c r="E40" s="27" t="e">
+      <c r="E40" s="17" t="e">
         <f>C40*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F40" s="27" t="e">
+      <c r="F40" s="17" t="e">
         <f>D40*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="27" t="e">
+      <c r="G40" s="17" t="e">
         <f t="shared" ref="G40" si="6">F40+E40</f>
         <v>#REF!</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="107">
         <v>1500</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40" s="99">
         <f t="shared" si="0"/>
         <v>2028000</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="99">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N40" s="72">
+      <c r="N40" s="103">
         <f t="shared" si="2"/>
         <v>2040000</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="72"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="103"/>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="35" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="107">
         <v>1500</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42" s="99">
         <f t="shared" si="0"/>
         <v>438240</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="99">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N42" s="72">
+      <c r="N42" s="103">
         <f t="shared" si="2"/>
         <v>450240</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="73">
+      <c r="A43" s="60">
         <v>230526</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="72"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="103"/>
     </row>
     <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="17">
         <v>40000</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="17">
         <v>10000</v>
       </c>
-      <c r="E44" s="27" t="e">
+      <c r="E44" s="17" t="e">
         <f>C44*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F44" s="27" t="e">
+      <c r="F44" s="17" t="e">
         <f>D44*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G44" s="27" t="e">
+      <c r="G44" s="17" t="e">
         <f t="shared" ref="G44" si="7">F44+E44</f>
         <v>#REF!</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="107">
         <v>10000</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44" s="99">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="99">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N44" s="72">
+      <c r="N44" s="103">
         <f t="shared" si="2"/>
         <v>110000</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="73">
+      <c r="A45" s="60">
         <v>230529.13</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="72"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="103"/>
     </row>
     <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="17">
         <v>20000</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="17">
         <v>10000</v>
       </c>
-      <c r="E46" s="27" t="e">
+      <c r="E46" s="17" t="e">
         <f>C46*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F46" s="27" t="e">
+      <c r="F46" s="17" t="e">
         <f>D46*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G46" s="27" t="e">
+      <c r="G46" s="17" t="e">
         <f t="shared" ref="G46" si="8">F46+E46</f>
         <v>#REF!</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="107">
         <v>10000</v>
       </c>
-      <c r="L46" s="28">
+      <c r="L46" s="99">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="99">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N46" s="72">
+      <c r="N46" s="103">
         <f t="shared" si="2"/>
         <v>110000</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
+      <c r="A47" s="60">
         <v>230529.16</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="72"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="103"/>
     </row>
     <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="17">
         <v>30000</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="17">
         <v>15000</v>
       </c>
-      <c r="E48" s="27" t="e">
+      <c r="E48" s="17" t="e">
         <f>C48*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F48" s="27" t="e">
+      <c r="F48" s="17" t="e">
         <f>D48*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G48" s="27" t="e">
+      <c r="G48" s="17" t="e">
         <f t="shared" ref="G48" si="9">F48+E48</f>
         <v>#REF!</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="107">
         <v>20000</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="99">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="99">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="N48" s="72">
+      <c r="N48" s="103">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
+      <c r="A49" s="60">
         <v>230553</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="72"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="103"/>
     </row>
     <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="17">
         <v>10000</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="17">
         <v>5000</v>
       </c>
-      <c r="E50" s="27" t="e">
+      <c r="E50" s="17" t="e">
         <f>C50*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F50" s="27" t="e">
+      <c r="F50" s="17" t="e">
         <f>D50*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G50" s="27" t="e">
+      <c r="G50" s="17" t="e">
         <f t="shared" ref="G50" si="10">F50+E50</f>
         <v>#REF!</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="107">
         <v>10000</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="99">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="99">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N50" s="72">
+      <c r="N50" s="103">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="73">
+      <c r="A51" s="60">
         <v>230579</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="72"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="103"/>
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="17">
         <v>15000</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="17">
         <v>5000</v>
       </c>
-      <c r="E52" s="27" t="e">
+      <c r="E52" s="17" t="e">
         <f>C52*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F52" s="27" t="e">
+      <c r="F52" s="17" t="e">
         <f>D52*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G52" s="27" t="e">
+      <c r="G52" s="17" t="e">
         <f t="shared" ref="G52" si="11">F52+E52</f>
         <v>#REF!</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="107">
         <v>10000</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="99">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="99">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N52" s="72">
+      <c r="N52" s="103">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="73">
+      <c r="A53" s="60">
         <v>230700</v>
       </c>
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="105"/>
-    </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="73">
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="109"/>
+    </row>
+    <row r="54" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="60">
         <v>230713.13</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="72"/>
-    </row>
-    <row r="55" spans="1:14" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="74" t="s">
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="103"/>
+    </row>
+    <row r="55" spans="1:14" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="31">
         <v>350</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="31">
         <v>60</v>
       </c>
-      <c r="E55" s="37" t="e">
+      <c r="E55" s="27" t="e">
         <f>C55*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F55" s="37" t="e">
+      <c r="F55" s="27" t="e">
         <f>D55*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="37" t="e">
+      <c r="G55" s="27" t="e">
         <f t="shared" ref="G55" si="12">F55+E55</f>
         <v>#REF!</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="I55" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="107">
         <v>50</v>
       </c>
-      <c r="L55" s="28">
+      <c r="L55" s="99">
         <f t="shared" si="0"/>
         <v>1697500</v>
       </c>
-      <c r="M55" s="28">
+      <c r="M55" s="99">
         <f t="shared" si="1"/>
         <v>485000</v>
       </c>
-      <c r="N55" s="72">
+      <c r="N55" s="103">
         <f t="shared" si="2"/>
         <v>2182500</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="73">
+      <c r="A56" s="60">
         <v>230719.13</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="72"/>
-    </row>
-    <row r="57" spans="1:14" ht="135" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="103"/>
+    </row>
+    <row r="57" spans="1:14" ht="120" x14ac:dyDescent="0.2">
+      <c r="A57" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="72"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="103"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
-      <c r="B58" s="42" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="72"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="103"/>
     </row>
     <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="60"/>
+      <c r="B59" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="28">
         <v>620</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="28">
         <v>175</v>
       </c>
-      <c r="E59" s="37" t="e">
+      <c r="E59" s="27" t="e">
         <f>C59*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F59" s="37" t="e">
+      <c r="F59" s="27" t="e">
         <f>D59*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G59" s="37" t="e">
+      <c r="G59" s="27" t="e">
         <f t="shared" ref="G59" si="13">F59+E59</f>
         <v>#REF!</v>
       </c>
-      <c r="H59" s="35" t="s">
+      <c r="H59" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="107">
         <v>100</v>
       </c>
-      <c r="L59" s="28">
+      <c r="L59" s="99">
         <f t="shared" si="0"/>
         <v>430000</v>
       </c>
-      <c r="M59" s="28">
+      <c r="M59" s="99">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="N59" s="72">
+      <c r="N59" s="103">
         <f t="shared" si="2"/>
         <v>473000</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="60"/>
+      <c r="B60" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="35" t="s">
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="107">
         <v>100</v>
       </c>
-      <c r="L60" s="28">
+      <c r="L60" s="99">
         <f t="shared" si="0"/>
         <v>244200</v>
       </c>
-      <c r="M60" s="28">
+      <c r="M60" s="99">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
-      <c r="N60" s="72">
+      <c r="N60" s="103">
         <f t="shared" si="2"/>
         <v>266200</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="60"/>
+      <c r="B61" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="35" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="107">
         <v>125</v>
       </c>
-      <c r="L61" s="28">
+      <c r="L61" s="99">
         <f t="shared" si="0"/>
         <v>166750</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="99">
         <f t="shared" si="1"/>
         <v>18125</v>
       </c>
-      <c r="N61" s="72">
+      <c r="N61" s="103">
         <f t="shared" si="2"/>
         <v>184875</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="60"/>
+      <c r="B62" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="35" t="s">
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="I62" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="107">
         <v>175</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="99">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
-      <c r="M62" s="28">
+      <c r="M62" s="99">
         <f t="shared" si="1"/>
         <v>85750</v>
       </c>
-      <c r="N62" s="72">
+      <c r="N62" s="103">
         <f t="shared" si="2"/>
         <v>1065750</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="73">
+      <c r="A63" s="60">
         <v>230719.26</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="72"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="103"/>
     </row>
     <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="72"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="103"/>
     </row>
     <row r="65" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
-      <c r="B65" s="43" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="28">
         <v>280</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="28">
         <v>90</v>
       </c>
-      <c r="E65" s="37" t="e">
+      <c r="E65" s="27" t="e">
         <f>C65*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F65" s="37" t="e">
+      <c r="F65" s="27" t="e">
         <f>D65*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G65" s="37" t="e">
+      <c r="G65" s="27" t="e">
         <f t="shared" ref="G65:G66" si="14">F65+E65</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H65" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I65" s="36" t="s">
+      <c r="I65" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="107">
         <v>50</v>
       </c>
-      <c r="L65" s="28">
+      <c r="L65" s="99">
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
-      <c r="M65" s="28">
+      <c r="M65" s="99">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="N65" s="72">
+      <c r="N65" s="103">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="43" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="28">
         <v>280</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="28">
         <v>90</v>
       </c>
-      <c r="E66" s="37" t="e">
+      <c r="E66" s="27" t="e">
         <f>C66*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F66" s="37" t="e">
+      <c r="F66" s="27" t="e">
         <f>D66*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G66" s="37" t="e">
+      <c r="G66" s="27" t="e">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
-      <c r="H66" s="35" t="s">
+      <c r="H66" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="36" t="s">
+      <c r="I66" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="107">
         <v>50</v>
       </c>
-      <c r="L66" s="28">
+      <c r="L66" s="99">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M66" s="28">
+      <c r="M66" s="99">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="N66" s="72">
+      <c r="N66" s="103">
         <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="35" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="107">
         <v>50</v>
       </c>
-      <c r="L67" s="28">
+      <c r="L67" s="99">
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
-      <c r="M67" s="28">
+      <c r="M67" s="99">
         <f t="shared" si="1"/>
         <v>16250</v>
       </c>
-      <c r="N67" s="72">
+      <c r="N67" s="103">
         <f t="shared" si="2"/>
         <v>211250</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="73">
+      <c r="A68" s="60">
         <v>230800</v>
       </c>
-      <c r="B68" s="112" t="s">
+      <c r="B68" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="105"/>
-    </row>
-    <row r="69" spans="1:34" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="73">
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="109"/>
+    </row>
+    <row r="69" spans="1:34" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="60">
         <v>230813</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="72"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="103"/>
     </row>
     <row r="70" spans="1:34" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="17">
         <v>40000</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27" t="e">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17" t="e">
         <f>C70*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F70" s="27" t="e">
+      <c r="F70" s="17" t="e">
         <f>D70*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G70" s="27" t="e">
+      <c r="G70" s="17" t="e">
         <f t="shared" ref="G70" si="15">F70+E70</f>
         <v>#REF!</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="18">
         <v>1</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="105">
         <v>100000</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="L70" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="105">
         <v>100000</v>
       </c>
-      <c r="N70" s="75">
+      <c r="N70" s="110">
         <v>100000</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="73">
+      <c r="A71" s="60">
         <v>232100</v>
       </c>
-      <c r="B71" s="111" t="s">
+      <c r="B71" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="72"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="103"/>
     </row>
     <row r="72" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="73">
+      <c r="A72" s="60">
         <v>232113.23</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="72"/>
-    </row>
-    <row r="73" spans="1:34" ht="120" x14ac:dyDescent="0.2">
-      <c r="A73" s="74" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="103"/>
+    </row>
+    <row r="73" spans="1:34" ht="105" x14ac:dyDescent="0.2">
+      <c r="A73" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="72"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="103"/>
     </row>
     <row r="74" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
-      <c r="B74" s="43" t="s">
+      <c r="A74" s="60"/>
+      <c r="B74" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="27">
         <v>970</v>
       </c>
-      <c r="D74" s="37">
+      <c r="D74" s="27">
         <v>180</v>
       </c>
-      <c r="E74" s="37" t="e">
+      <c r="E74" s="27" t="e">
         <f>C74*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F74" s="37" t="e">
+      <c r="F74" s="27" t="e">
         <f>D74*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G74" s="37" t="e">
+      <c r="G74" s="27" t="e">
         <f t="shared" ref="G74:G75" si="16">F74+E74</f>
         <v>#REF!</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H74" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I74" s="36" t="s">
+      <c r="I74" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="107">
         <v>140</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="99">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="99">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="N74" s="72">
+      <c r="N74" s="103">
         <f t="shared" si="2"/>
         <v>28200</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="43" t="s">
+      <c r="A75" s="60"/>
+      <c r="B75" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="27">
         <v>1300</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="27">
         <v>225</v>
       </c>
-      <c r="E75" s="37" t="e">
+      <c r="E75" s="27" t="e">
         <f>C75*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F75" s="37" t="e">
+      <c r="F75" s="27" t="e">
         <f>D75*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G75" s="37" t="e">
+      <c r="G75" s="27" t="e">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
-      <c r="H75" s="35" t="s">
+      <c r="H75" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="36" t="s">
+      <c r="I75" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="107">
         <v>200</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="99">
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="99">
         <f t="shared" si="1"/>
         <v>64000</v>
       </c>
-      <c r="N75" s="72">
+      <c r="N75" s="103">
         <f t="shared" si="2"/>
         <v>384000</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="76">
+      <c r="A76" s="62">
         <v>232113.26</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="72"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="99"/>
+      <c r="M76" s="99"/>
+      <c r="N76" s="103"/>
     </row>
     <row r="77" spans="1:34" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="72"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="103"/>
     </row>
     <row r="78" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
-      <c r="B78" s="43" t="s">
+      <c r="A78" s="63"/>
+      <c r="B78" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="38">
+      <c r="C78" s="28">
         <v>430</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="28">
         <v>80</v>
       </c>
-      <c r="E78" s="37" t="e">
+      <c r="E78" s="27" t="e">
         <f>C78*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F78" s="37" t="e">
+      <c r="F78" s="27" t="e">
         <f>D78*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G78" s="37" t="e">
+      <c r="G78" s="27" t="e">
         <f t="shared" ref="G78:G80" si="17">F78+E78</f>
         <v>#REF!</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I78" s="36" t="s">
+      <c r="I78" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="107">
         <v>50</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="99">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="99">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="N78" s="72">
+      <c r="N78" s="103">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
-      <c r="B79" s="43" t="s">
+      <c r="A79" s="63"/>
+      <c r="B79" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="28">
         <v>550</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="28">
         <v>110</v>
       </c>
-      <c r="E79" s="37" t="e">
+      <c r="E79" s="27" t="e">
         <f>C79*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F79" s="37" t="e">
+      <c r="F79" s="27" t="e">
         <f>D79*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G79" s="37" t="e">
+      <c r="G79" s="27" t="e">
         <f t="shared" si="17"/>
         <v>#REF!</v>
       </c>
-      <c r="H79" s="35" t="s">
+      <c r="H79" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I79" s="36" t="s">
+      <c r="I79" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="107">
         <v>50</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L79" s="99">
         <f t="shared" si="0"/>
         <v>60900</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="99">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="N79" s="72">
+      <c r="N79" s="103">
         <f t="shared" si="2"/>
         <v>67900</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="B80" s="31" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C80" s="28">
         <v>550</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="28">
         <v>110</v>
       </c>
-      <c r="E80" s="37" t="e">
+      <c r="E80" s="27" t="e">
         <f>C80*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F80" s="37" t="e">
+      <c r="F80" s="27" t="e">
         <f>D80*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G80" s="37" t="e">
+      <c r="G80" s="27" t="e">
         <f t="shared" si="17"/>
         <v>#REF!</v>
       </c>
-      <c r="H80" s="35" t="s">
+      <c r="H80" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="36" t="s">
+      <c r="I80" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="107">
         <v>50</v>
       </c>
-      <c r="L80" s="28">
+      <c r="L80" s="99">
         <f t="shared" si="0"/>
         <v>14700</v>
       </c>
-      <c r="M80" s="28">
+      <c r="M80" s="99">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="N80" s="72">
+      <c r="N80" s="103">
         <f t="shared" si="2"/>
         <v>16200</v>
       </c>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-    </row>
-    <row r="81" spans="1:34" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="73">
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="14"/>
+    </row>
+    <row r="81" spans="1:34" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="60">
         <v>232113.23</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="72"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-      <c r="X81" s="24"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
-      <c r="AA81" s="24"/>
-      <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-    </row>
-    <row r="82" spans="1:34" s="11" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="74" t="s">
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="103"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="14"/>
+      <c r="AG81" s="14"/>
+      <c r="AH81" s="14"/>
+    </row>
+    <row r="82" spans="1:34" s="6" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-      <c r="X82" s="24"/>
-      <c r="Y82" s="24"/>
-      <c r="Z82" s="24"/>
-      <c r="AA82" s="24"/>
-      <c r="AB82" s="24"/>
-      <c r="AC82" s="24"/>
-      <c r="AD82" s="24"/>
-      <c r="AE82" s="24"/>
-      <c r="AF82" s="24"/>
-      <c r="AG82" s="24"/>
-      <c r="AH82" s="24"/>
-    </row>
-    <row r="83" spans="1:34" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="74"/>
-      <c r="B83" s="43" t="s">
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="108"/>
+      <c r="L82" s="99"/>
+      <c r="M82" s="99"/>
+      <c r="N82" s="103"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+    </row>
+    <row r="83" spans="1:34" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="61"/>
+      <c r="B83" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="35" t="s">
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I83" s="36" t="s">
+      <c r="I83" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="107">
         <v>110</v>
       </c>
-      <c r="L83" s="28">
+      <c r="L83" s="99">
         <f t="shared" si="0"/>
         <v>720680</v>
       </c>
-      <c r="M83" s="28">
+      <c r="M83" s="99">
         <f t="shared" si="1"/>
         <v>47300</v>
       </c>
-      <c r="N83" s="72">
+      <c r="N83" s="103">
         <f t="shared" si="2"/>
         <v>767980</v>
       </c>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
-      <c r="AB83" s="24"/>
-      <c r="AC83" s="24"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="24"/>
-      <c r="AH83" s="24"/>
-    </row>
-    <row r="84" spans="1:34" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="43" t="s">
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="14"/>
+    </row>
+    <row r="84" spans="1:34" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="35" t="s">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="36" t="s">
+      <c r="I84" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="107">
         <v>120</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="99">
         <f t="shared" si="0"/>
         <v>484000</v>
       </c>
-      <c r="M84" s="28">
+      <c r="M84" s="99">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="N84" s="72">
+      <c r="N84" s="103">
         <f t="shared" si="2"/>
         <v>510400</v>
       </c>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="24"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="24"/>
-    </row>
-    <row r="85" spans="1:34" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="74"/>
-      <c r="B85" s="43" t="s">
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="14"/>
+      <c r="AF84" s="14"/>
+      <c r="AG84" s="14"/>
+      <c r="AH84" s="14"/>
+    </row>
+    <row r="85" spans="1:34" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="61"/>
+      <c r="B85" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="35" t="s">
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I85" s="36" t="s">
+      <c r="I85" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="107">
         <v>130</v>
       </c>
-      <c r="L85" s="28">
+      <c r="L85" s="99">
         <f t="shared" si="0"/>
         <v>464000</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="99">
         <f t="shared" si="1"/>
         <v>18850</v>
       </c>
-      <c r="N85" s="72">
+      <c r="N85" s="103">
         <f t="shared" si="2"/>
         <v>482850</v>
       </c>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
-      <c r="AB85" s="24"/>
-      <c r="AC85" s="24"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="24"/>
-    </row>
-    <row r="86" spans="1:34" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
-      <c r="B86" s="43" t="s">
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="14"/>
+      <c r="AG85" s="14"/>
+      <c r="AH85" s="14"/>
+    </row>
+    <row r="86" spans="1:34" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="35" t="s">
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I86" s="36" t="s">
+      <c r="I86" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="107">
         <v>140</v>
       </c>
-      <c r="L86" s="28">
+      <c r="L86" s="99">
         <f t="shared" ref="L86:L94" si="18">J86*H86</f>
         <v>1666000</v>
       </c>
-      <c r="M86" s="28">
+      <c r="M86" s="99">
         <f t="shared" ref="M86:M104" si="19">K86*H86</f>
         <v>68600</v>
       </c>
-      <c r="N86" s="72">
+      <c r="N86" s="103">
         <f t="shared" ref="N86:N94" si="20">L86+M86</f>
         <v>1734600</v>
       </c>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="24"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
+      <c r="AG86" s="14"/>
+      <c r="AH86" s="14"/>
     </row>
     <row r="87" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="73">
+      <c r="A87" s="60">
         <v>233100</v>
       </c>
-      <c r="B87" s="112" t="s">
+      <c r="B87" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="72"/>
-    </row>
-    <row r="88" spans="1:34" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="73">
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="99"/>
+      <c r="M87" s="99"/>
+      <c r="N87" s="103"/>
+    </row>
+    <row r="88" spans="1:34" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="60">
         <v>233113.13</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="72"/>
-    </row>
-    <row r="89" spans="1:34" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A89" s="74" t="s">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="108"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="99"/>
+      <c r="N88" s="103"/>
+    </row>
+    <row r="89" spans="1:34" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A89" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="72"/>
-    </row>
-    <row r="90" spans="1:34" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="74" t="s">
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="108"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="103"/>
+    </row>
+    <row r="90" spans="1:34" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90" s="31">
         <v>420</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="31">
         <v>60</v>
       </c>
-      <c r="E90" s="37" t="e">
+      <c r="E90" s="27" t="e">
         <f>C90*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F90" s="37" t="e">
+      <c r="F90" s="27" t="e">
         <f>D90*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G90" s="37" t="e">
+      <c r="G90" s="27" t="e">
         <f t="shared" ref="G90:G93" si="21">F90+E90</f>
         <v>#REF!</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I90" s="36" t="s">
+      <c r="I90" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="107">
         <v>60</v>
       </c>
-      <c r="L90" s="28">
+      <c r="L90" s="99">
         <f t="shared" si="18"/>
         <v>960000</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="99">
         <f t="shared" si="19"/>
         <v>144000</v>
       </c>
-      <c r="N90" s="72">
+      <c r="N90" s="103">
         <f t="shared" si="20"/>
         <v>1104000</v>
       </c>
     </row>
-    <row r="91" spans="1:34" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="74" t="s">
+    <row r="91" spans="1:34" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91" s="31">
         <v>400</v>
       </c>
-      <c r="D91" s="41">
+      <c r="D91" s="31">
         <v>60</v>
       </c>
-      <c r="E91" s="37" t="e">
+      <c r="E91" s="27" t="e">
         <f>C91*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F91" s="37" t="e">
+      <c r="F91" s="27" t="e">
         <f>D91*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G91" s="37" t="e">
+      <c r="G91" s="27" t="e">
         <f t="shared" si="21"/>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H91" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I91" s="36" t="s">
+      <c r="I91" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="107">
         <v>60</v>
       </c>
-      <c r="L91" s="28">
+      <c r="L91" s="99">
         <f t="shared" si="18"/>
         <v>2555000</v>
       </c>
-      <c r="M91" s="28">
+      <c r="M91" s="99">
         <f t="shared" si="19"/>
         <v>438000</v>
       </c>
-      <c r="N91" s="72">
+      <c r="N91" s="103">
         <f t="shared" si="20"/>
         <v>2993000</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="73">
+      <c r="A92" s="60">
         <v>233300</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="17">
         <v>12000</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92" s="17">
         <v>1500</v>
       </c>
-      <c r="E92" s="27" t="e">
+      <c r="E92" s="17" t="e">
         <f>C92*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F92" s="27" t="e">
+      <c r="F92" s="17" t="e">
         <f>D92*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G92" s="27" t="e">
+      <c r="G92" s="17" t="e">
         <f t="shared" si="21"/>
         <v>#REF!</v>
       </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="72"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="108"/>
+      <c r="L92" s="99"/>
+      <c r="M92" s="99"/>
+      <c r="N92" s="103"/>
     </row>
     <row r="93" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="73">
+      <c r="A93" s="60">
         <v>233343</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="17">
         <v>25000</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="17">
         <v>8000</v>
       </c>
-      <c r="E93" s="27" t="e">
+      <c r="E93" s="17" t="e">
         <f>C93*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F93" s="27" t="e">
+      <c r="F93" s="17" t="e">
         <f>D93*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G93" s="27" t="e">
+      <c r="G93" s="17" t="e">
         <f t="shared" si="21"/>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="72"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="108"/>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="103"/>
     </row>
     <row r="94" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="74" t="s">
+      <c r="A94" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="35" t="s">
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I94" s="36" t="s">
+      <c r="I94" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="107">
         <v>21000</v>
       </c>
-      <c r="L94" s="28">
+      <c r="L94" s="99">
         <f t="shared" si="18"/>
         <v>100000</v>
       </c>
-      <c r="M94" s="28">
+      <c r="M94" s="99">
         <f t="shared" si="19"/>
         <v>21000</v>
       </c>
-      <c r="N94" s="72">
+      <c r="N94" s="103">
         <f t="shared" si="20"/>
         <v>121000</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="76">
+      <c r="A95" s="62">
         <v>233700</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="17">
         <v>20000</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="17">
         <v>6000</v>
       </c>
-      <c r="E95" s="27" t="e">
+      <c r="E95" s="17" t="e">
         <f>C95*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F95" s="27" t="e">
+      <c r="F95" s="17" t="e">
         <f>D95*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G95" s="27" t="e">
+      <c r="G95" s="17" t="e">
         <f t="shared" ref="G95" si="22">F95+E95</f>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="72"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="108"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="103"/>
     </row>
     <row r="96" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="76">
+      <c r="A96" s="62">
         <v>233713</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="72"/>
-    </row>
-    <row r="97" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="43" t="s">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="111"/>
+      <c r="K96" s="111"/>
+      <c r="L96" s="99"/>
+      <c r="M96" s="99"/>
+      <c r="N96" s="103"/>
+    </row>
+    <row r="97" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="63"/>
+      <c r="B97" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="72"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="103"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="72"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="104"/>
+      <c r="K98" s="104"/>
+      <c r="L98" s="99"/>
+      <c r="M98" s="99"/>
+      <c r="N98" s="103"/>
     </row>
     <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="43" t="s">
+      <c r="A99" s="63"/>
+      <c r="B99" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="48">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="38">
         <v>80</v>
       </c>
-      <c r="I99" s="49" t="s">
+      <c r="I99" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="113">
         <v>3000</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="114">
         <v>750</v>
       </c>
-      <c r="L99" s="28">
+      <c r="L99" s="99">
         <f>J99*H99</f>
         <v>240000</v>
       </c>
-      <c r="M99" s="28">
+      <c r="M99" s="99">
         <f>K99*H99</f>
         <v>60000</v>
       </c>
-      <c r="N99" s="72">
+      <c r="N99" s="103">
         <f>L99+M99</f>
         <v>300000</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="43" t="s">
+      <c r="A100" s="63"/>
+      <c r="B100" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="48">
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="38">
         <v>8</v>
       </c>
-      <c r="I100" s="49" t="s">
+      <c r="I100" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="113">
         <v>3000</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="114">
         <v>750</v>
       </c>
-      <c r="L100" s="28">
+      <c r="L100" s="99">
         <f>J100*H100</f>
         <v>24000</v>
       </c>
-      <c r="M100" s="28">
+      <c r="M100" s="99">
         <f t="shared" ref="M100:M101" si="23">K100*H100</f>
         <v>6000</v>
       </c>
-      <c r="N100" s="72">
+      <c r="N100" s="103">
         <f>L100+M100</f>
         <v>30000</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="43" t="s">
+      <c r="A101" s="63"/>
+      <c r="B101" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="48">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="38">
         <v>8</v>
       </c>
-      <c r="I101" s="49" t="s">
+      <c r="I101" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="113">
         <v>3000</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="114">
         <v>750</v>
       </c>
-      <c r="L101" s="28">
+      <c r="L101" s="99">
         <f>J101*H101</f>
         <v>24000</v>
       </c>
-      <c r="M101" s="28">
+      <c r="M101" s="99">
         <f t="shared" si="23"/>
         <v>6000</v>
       </c>
-      <c r="N101" s="72">
+      <c r="N101" s="103">
         <f>L101+M101</f>
         <v>30000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="76">
+      <c r="A102" s="62">
         <v>238219</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="72"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="104"/>
+      <c r="K102" s="104"/>
+      <c r="L102" s="99"/>
+      <c r="M102" s="99"/>
+      <c r="N102" s="103"/>
     </row>
     <row r="103" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="77" t="s">
+      <c r="A103" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="40">
         <v>25000</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="40">
         <v>10000</v>
       </c>
-      <c r="E103" s="51" t="e">
+      <c r="E103" s="41" t="e">
         <f>C103*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F103" s="51" t="e">
+      <c r="F103" s="41" t="e">
         <f>D103*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G103" s="51" t="e">
+      <c r="G103" s="41" t="e">
         <f t="shared" ref="G103" si="24">F103+E103</f>
         <v>#REF!</v>
       </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="72"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="104"/>
+      <c r="K103" s="104"/>
+      <c r="L103" s="99"/>
+      <c r="M103" s="99"/>
+      <c r="N103" s="103"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="48">
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="38">
         <v>2</v>
       </c>
-      <c r="I104" s="49" t="s">
+      <c r="I104" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K104" s="114">
         <v>15000</v>
       </c>
-      <c r="L104" s="28" t="s">
+      <c r="L104" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="M104" s="28">
+      <c r="M104" s="99">
         <f t="shared" si="19"/>
         <v>30000</v>
       </c>
-      <c r="N104" s="69">
+      <c r="N104" s="100">
         <f>M104</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="86" t="s">
+    <row r="105" spans="1:16" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="89">
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="72">
         <v>6</v>
       </c>
-      <c r="I105" s="90" t="s">
+      <c r="I105" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J105" s="91" t="s">
+      <c r="J105" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="K105" s="92">
+      <c r="K105" s="116">
         <v>10000</v>
       </c>
-      <c r="L105" s="93" t="s">
+      <c r="L105" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="M105" s="93">
+      <c r="M105" s="117">
         <f>K105*H105</f>
         <v>60000</v>
       </c>
-      <c r="N105" s="94">
+      <c r="N105" s="118">
         <f>M105</f>
         <v>60000</v>
       </c>
-      <c r="O105" s="106"/>
-    </row>
-    <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
-      <c r="B106" s="79" t="s">
+      <c r="O105" s="82"/>
+    </row>
+    <row r="106" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="64"/>
+      <c r="B106" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C106" s="80">
+      <c r="C106" s="66">
         <v>910000</v>
       </c>
-      <c r="D106" s="80">
+      <c r="D106" s="66">
         <v>20000</v>
       </c>
-      <c r="E106" s="81" t="e">
+      <c r="E106" s="67" t="e">
         <f>C106*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F106" s="81" t="e">
+      <c r="F106" s="67" t="e">
         <f>D106*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G106" s="81" t="e">
+      <c r="G106" s="67" t="e">
         <f t="shared" ref="G106:G107" si="25">F106+E106</f>
         <v>#REF!</v>
       </c>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="84">
+      <c r="H106" s="68"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="119"/>
+      <c r="K106" s="119"/>
+      <c r="L106" s="120">
         <f>SUM(L12:L105)</f>
         <v>16590770</v>
       </c>
-      <c r="M106" s="84">
+      <c r="M106" s="120">
         <f>SUM(M12:M105)</f>
         <v>2042975</v>
       </c>
-      <c r="N106" s="85">
+      <c r="N106" s="121">
         <f>SUM(N12:N105)</f>
         <v>18633745</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54">
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="44">
         <v>1790000</v>
       </c>
-      <c r="D107" s="54">
+      <c r="D107" s="44">
         <v>25000</v>
       </c>
-      <c r="E107" s="55" t="e">
+      <c r="E107" s="45" t="e">
         <f>C107*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F107" s="55" t="e">
+      <c r="F107" s="45" t="e">
         <f>D107*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="55" t="e">
+      <c r="G107" s="45" t="e">
         <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="56" t="e">
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="46" t="e">
         <f>SUM(E12:E107)</f>
         <v>#REF!</v>
       </c>
-      <c r="F108" s="56" t="e">
+      <c r="F108" s="46" t="e">
         <f>SUM(F12:F107)</f>
         <v>#REF!</v>
       </c>
-      <c r="G108" s="56" t="e">
+      <c r="G108" s="46" t="e">
         <f>SUM(G12:G107)</f>
         <v>#REF!</v>
       </c>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="122">
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="84">
         <v>0.5</v>
       </c>
-      <c r="N108" s="123">
+      <c r="N108" s="85">
         <f>N106*50%</f>
         <v>9316872.5</v>
       </c>
-      <c r="P108" s="121"/>
+      <c r="P108" s="83"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
     </row>
     <row r="113" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
     </row>
     <row r="114" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
     </row>
     <row r="115" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
     </row>
     <row r="116" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
     </row>
     <row r="117" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
     </row>
     <row r="118" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
     </row>
     <row r="119" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
     </row>
     <row r="120" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
     </row>
     <row r="121" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
     </row>
     <row r="122" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
     </row>
     <row r="123" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
     </row>
     <row r="124" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
     </row>
     <row r="125" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
     </row>
     <row r="126" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
     </row>
     <row r="127" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
     </row>
     <row r="128" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
     </row>
     <row r="129" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
     </row>
     <row r="130" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
     </row>
     <row r="131" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
     </row>
     <row r="132" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
     </row>
     <row r="133" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
     </row>
     <row r="134" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
     </row>
     <row r="135" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
     </row>
     <row r="136" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
     </row>
     <row r="137" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
     </row>
     <row r="138" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="20"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
     </row>
     <row r="139" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J139" s="17"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
     </row>
     <row r="140" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
     </row>
     <row r="141" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
     </row>
     <row r="142" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
     </row>
     <row r="143" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
     </row>
     <row r="144" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
     </row>
     <row r="145" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
     </row>
     <row r="146" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
     </row>
     <row r="147" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
     </row>
     <row r="148" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
     </row>
     <row r="149" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
     </row>
     <row r="150" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
     </row>
     <row r="151" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
     </row>
     <row r="152" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
     </row>
     <row r="153" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
     </row>
     <row r="154" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
     </row>
     <row r="155" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
     </row>
     <row r="156" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
     </row>
     <row r="157" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
     </row>
     <row r="158" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
     </row>
     <row r="159" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
     </row>
     <row r="160" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
     </row>
     <row r="161" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
     </row>
     <row r="162" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
     </row>
     <row r="163" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
     </row>
     <row r="164" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
     </row>
     <row r="165" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
     </row>
     <row r="166" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
     </row>
     <row r="167" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
     </row>
     <row r="168" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
-      <c r="N168" s="17"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
     </row>
     <row r="169" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
-      <c r="M169" s="17"/>
-      <c r="N169" s="17"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
     </row>
     <row r="170" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
-      <c r="N170" s="17"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
     </row>
     <row r="171" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
     </row>
     <row r="172" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J172" s="17"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="17"/>
-      <c r="M172" s="17"/>
-      <c r="N172" s="17"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
     </row>
     <row r="173" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="17"/>
-      <c r="N173" s="17"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
     </row>
     <row r="174" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="17"/>
-      <c r="M174" s="17"/>
-      <c r="N174" s="17"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
     </row>
     <row r="175" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
-      <c r="N175" s="20"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
     </row>
     <row r="176" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J176" s="21"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="21"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
     </row>
     <row r="177" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
-      <c r="M177" s="17"/>
-      <c r="N177" s="17"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
     </row>
     <row r="178" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="17"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="17"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
     </row>
     <row r="179" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
-      <c r="M179" s="17"/>
-      <c r="N179" s="17"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
     </row>
     <row r="180" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="17"/>
-      <c r="M180" s="17"/>
-      <c r="N180" s="17"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
     </row>
     <row r="181" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
     </row>
     <row r="182" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
     </row>
     <row r="183" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
     </row>
     <row r="184" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J184" s="17"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="17"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
     </row>
     <row r="185" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J185" s="17"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="17"/>
-      <c r="M185" s="17"/>
-      <c r="N185" s="17"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
     </row>
     <row r="186" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="17"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
     </row>
     <row r="187" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J187" s="17"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="17"/>
-      <c r="M187" s="17"/>
-      <c r="N187" s="17"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
     </row>
     <row r="188" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J188" s="17"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="17"/>
-      <c r="M188" s="17"/>
-      <c r="N188" s="17"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
     </row>
     <row r="189" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J189" s="17"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="17"/>
-      <c r="M189" s="17"/>
-      <c r="N189" s="17"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
     </row>
     <row r="190" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="17"/>
-      <c r="M190" s="17"/>
-      <c r="N190" s="17"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
     </row>
     <row r="191" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J191" s="17"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="17"/>
-      <c r="M191" s="17"/>
-      <c r="N191" s="17"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
     </row>
     <row r="192" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J192" s="17"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="17"/>
-      <c r="M192" s="17"/>
-      <c r="N192" s="17"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
     </row>
     <row r="193" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="17"/>
-      <c r="M193" s="17"/>
-      <c r="N193" s="17"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
     </row>
     <row r="194" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="9"/>
     </row>
     <row r="195" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="9"/>
     </row>
     <row r="196" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-      <c r="N196" s="18"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="8"/>
+      <c r="N196" s="8"/>
     </row>
     <row r="197" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J197" s="22"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="22"/>
-      <c r="M197" s="22"/>
-      <c r="N197" s="22"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
     </row>
     <row r="198" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="9"/>
     </row>
     <row r="199" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="8"/>
+      <c r="N199" s="8"/>
     </row>
     <row r="200" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J200" s="22"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="22"/>
-      <c r="M200" s="22"/>
-      <c r="N200" s="22"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
     </row>
     <row r="201" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J201" s="19"/>
-      <c r="K201" s="19"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="9"/>
     </row>
     <row r="202" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
+      <c r="J202" s="8"/>
+      <c r="K202" s="8"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
     </row>
     <row r="203" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="9"/>
+      <c r="N203" s="9"/>
     </row>
     <row r="204" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="9"/>
+      <c r="N204" s="9"/>
     </row>
     <row r="205" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J205" s="23"/>
-      <c r="K205" s="23"/>
-      <c r="L205" s="23"/>
-      <c r="M205" s="23"/>
-      <c r="N205" s="23"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H8:H9"/>
@@ -5876,10 +5883,18 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Bold"22/32/NS&amp;R&amp;"Arial,Bold"BILL OF QUANTITY FOR HVAC WORKS</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Bold"&amp;10Y.H.ASSOCIATES&amp;"Arial,Regular" CONSULTING ENGINEER'S&amp;R&amp;P of &amp;N</oddFooter>

--- a/Running projects/NASTP Sierra 3rd Floor/HVAC BOQ_Third Floor.xlsx
+++ b/Running projects/NASTP Sierra 3rd Floor/HVAC BOQ_Third Floor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP Sierra 3rd Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1372E6C6-C9E8-40F2-856E-EDCAEC44E6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CBFFB-8B96-4493-8DF8-978729020091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Mujahid</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7F09F498-9192-414F-AD07-1C73EF9FAA4E}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{7F09F498-9192-414F-AD07-1C73EF9FAA4E}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
   <si>
     <t>Item #</t>
   </si>
@@ -508,10 +508,6 @@
     <t>1110</t>
   </si>
   <si>
-    <t>SUMMARY OF PRICES FOR HVAC WORKS
-(THIRD FLOOR ROOF EXTENTION)</t>
-  </si>
-  <si>
     <t>ITEM #</t>
   </si>
   <si>
@@ -530,16 +526,22 @@
     <t>Commissioning of HVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">Instrumentation and Control for HVAC </t>
-  </si>
-  <si>
-    <t>Fan coil Unit's &amp;  FAHU</t>
-  </si>
-  <si>
-    <t>NOTE:</t>
-  </si>
-  <si>
-    <t>All chilled water piping shall have 26 Gauge G.I. Sheet Jacketting.</t>
+    <t>Installation of AHUs</t>
+  </si>
+  <si>
+    <t>Mr. Farrukh</t>
+  </si>
+  <si>
+    <t>Dear Sir,</t>
+  </si>
+  <si>
+    <t>Please find the attached proposal for Third Floor Extension.</t>
+  </si>
+  <si>
+    <t>Thanking you,</t>
+  </si>
+  <si>
+    <t>for PIONEER SERVICES</t>
   </si>
 </sst>
 </file>
@@ -923,7 +925,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1140,9 +1142,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1167,18 +1166,91 @@
     <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,103 +1263,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1307,6 +1318,216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>62505</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A72B8FA-A750-4B0D-B497-2B4C386775A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="7915277"/>
+          <a:ext cx="719730" cy="574066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2053230</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A310567F-9F71-4697-964C-A1BE218DCA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1389062" y="352426"/>
+          <a:ext cx="4464643" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>329205</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624479</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E65AD4D-FEC0-44C0-A0FA-E3520AEF876E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="329205" y="66675"/>
+          <a:ext cx="1123949" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1596,189 +1817,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF40076-0BC4-4EDE-9CDF-8072258376F1}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A9:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C3:C14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="81" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="80" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="81" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="121">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="122"/>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="C14" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="76" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>1</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="119">
+        <v>4097000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
+        <v>2</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="119">
+        <v>3999630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>3</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="119">
+        <v>4532075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <v>4</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="119">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75">
+        <v>5</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="119">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
+        <v>6</v>
+      </c>
+      <c r="B20" s="77" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
-        <v>230010</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
-        <v>230100</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
-        <v>230500</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="123">
+      <c r="C20" s="119">
         <v>5334040</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
-        <v>230700</v>
-      </c>
-      <c r="B6" s="77" t="s">
+    <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <v>7</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="119">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <v>8</v>
+      </c>
+      <c r="B22" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="123">
-        <v>4532075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
-        <v>230800</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="123">
+      <c r="C22" s="119">
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
-        <v>230900</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>232100</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="123">
-        <v>3999630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
-        <v>233100</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="123">
-        <v>4097000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
-        <v>233300</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="123">
-        <v>121000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
-        <v>233700</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="123">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
-        <v>238219</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="123">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="75" t="s">
+    <row r="23" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C23" s="120">
         <v>18633745</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
-        <v>1</v>
-      </c>
-      <c r="B17" s="88" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="88"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="125"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1812,62 +2027,62 @@
   <sheetData>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="111"/>
+      <c r="G8" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96" t="s">
+      <c r="M8" s="111"/>
+      <c r="N8" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="47" t="s">
         <v>5</v>
       </c>
@@ -1880,9 +2095,9 @@
       <c r="F9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
       <c r="J9" s="47" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +2110,7 @@
       <c r="M9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="96"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
@@ -1945,14 +2160,14 @@
       <c r="A11" s="54">
         <v>230010</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
       <c r="J11" s="56"/>
@@ -1990,19 +2205,19 @@
       <c r="I12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="99" t="s">
+      <c r="L12" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="100" t="s">
+      <c r="N12" s="86" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2035,19 +2250,19 @@
       <c r="I13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="99" t="s">
+      <c r="K13" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="99" t="s">
+      <c r="L13" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="99" t="s">
+      <c r="M13" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="100" t="s">
+      <c r="N13" s="86" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2065,11 +2280,11 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="102"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
@@ -2081,31 +2296,31 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <v>230100</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="102"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
@@ -2121,11 +2336,11 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="102"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
@@ -2156,19 +2371,19 @@
       <c r="I18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="99" t="s">
+      <c r="L18" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="99" t="s">
+      <c r="M18" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="100" t="s">
+      <c r="N18" s="86" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2176,21 +2391,21 @@
       <c r="A19" s="59">
         <v>230500</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="102"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="88"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
@@ -2206,11 +2421,11 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="102"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88"/>
     </row>
     <row r="21" spans="1:14" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
@@ -2243,21 +2458,21 @@
       <c r="I21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="99">
+      <c r="J21" s="85">
         <v>70000</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K21" s="85">
         <v>1500</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L21" s="85">
         <f>J21*H21</f>
         <v>560000</v>
       </c>
-      <c r="M21" s="99">
+      <c r="M21" s="85">
         <f>K21*H21</f>
         <v>12000</v>
       </c>
-      <c r="N21" s="103">
+      <c r="N21" s="89">
         <f>L21+M21</f>
         <v>572000</v>
       </c>
@@ -2276,11 +2491,11 @@
       <c r="G22" s="17"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="103"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="89"/>
     </row>
     <row r="23" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
@@ -2313,21 +2528,21 @@
       <c r="I23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="91">
         <v>300000</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="85">
         <v>50000</v>
       </c>
-      <c r="L23" s="99">
+      <c r="L23" s="85">
         <f t="shared" ref="L23:L85" si="0">J23*H23</f>
         <v>300000</v>
       </c>
-      <c r="M23" s="99">
+      <c r="M23" s="85">
         <f t="shared" ref="M23:M85" si="1">K23*H23</f>
         <v>50000</v>
       </c>
-      <c r="N23" s="103">
+      <c r="N23" s="89">
         <f t="shared" ref="N23:N85" si="2">L23+M23</f>
         <v>350000</v>
       </c>
@@ -2346,11 +2561,11 @@
       <c r="G24" s="17"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="103"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="89"/>
     </row>
     <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
@@ -2366,11 +2581,11 @@
       <c r="G25" s="17"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="103"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="89"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
@@ -2384,11 +2599,11 @@
       <c r="G26" s="17"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="103"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="89"/>
     </row>
     <row r="27" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
@@ -2421,21 +2636,21 @@
       <c r="I27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="85">
         <v>1000</v>
       </c>
-      <c r="L27" s="99">
+      <c r="L27" s="85">
         <f t="shared" si="0"/>
         <v>164800</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="85">
         <f>K27*H27</f>
         <v>16000</v>
       </c>
-      <c r="N27" s="103">
+      <c r="N27" s="89">
         <f t="shared" si="2"/>
         <v>180800</v>
       </c>
@@ -2471,21 +2686,21 @@
       <c r="I28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="105" t="s">
+      <c r="J28" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="99">
+      <c r="K28" s="85">
         <v>1000</v>
       </c>
-      <c r="L28" s="99">
+      <c r="L28" s="85">
         <f t="shared" si="0"/>
         <v>152000</v>
       </c>
-      <c r="M28" s="99">
+      <c r="M28" s="85">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N28" s="103">
+      <c r="N28" s="89">
         <f t="shared" si="2"/>
         <v>168000</v>
       </c>
@@ -2521,21 +2736,21 @@
       <c r="I29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="105" t="s">
+      <c r="J29" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="99">
+      <c r="K29" s="85">
         <v>1000</v>
       </c>
-      <c r="L29" s="99">
+      <c r="L29" s="85">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M29" s="85">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N29" s="103">
+      <c r="N29" s="89">
         <f t="shared" si="2"/>
         <v>48000</v>
       </c>
@@ -2571,21 +2786,21 @@
       <c r="I30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="105" t="s">
+      <c r="J30" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="99">
+      <c r="K30" s="85">
         <v>1000</v>
       </c>
-      <c r="L30" s="99">
+      <c r="L30" s="85">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="85">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="N30" s="103">
+      <c r="N30" s="89">
         <f t="shared" si="2"/>
         <v>176000</v>
       </c>
@@ -2604,11 +2819,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="103"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
@@ -2622,11 +2837,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="103"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="89"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61" t="s">
@@ -2642,11 +2857,11 @@
       <c r="G33" s="27"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="103"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="89"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61" t="s">
@@ -2662,11 +2877,11 @@
       <c r="G34" s="27"/>
       <c r="H34" s="49"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="103"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="89"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
@@ -2697,21 +2912,21 @@
       <c r="I35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J35" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="107">
+      <c r="K35" s="93">
         <v>1500</v>
       </c>
-      <c r="L35" s="99">
+      <c r="L35" s="85">
         <f t="shared" si="0"/>
         <v>376000</v>
       </c>
-      <c r="M35" s="99">
+      <c r="M35" s="85">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="N35" s="103">
+      <c r="N35" s="89">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
@@ -2732,21 +2947,21 @@
       <c r="I36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="107" t="s">
+      <c r="J36" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="107">
+      <c r="K36" s="93">
         <v>1500</v>
       </c>
-      <c r="L36" s="99">
+      <c r="L36" s="85">
         <f t="shared" si="0"/>
         <v>133000</v>
       </c>
-      <c r="M36" s="99">
+      <c r="M36" s="85">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="N36" s="103">
+      <c r="N36" s="89">
         <f t="shared" si="2"/>
         <v>136000</v>
       </c>
@@ -2765,11 +2980,11 @@
       <c r="G37" s="27"/>
       <c r="H37" s="25"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="103"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="89"/>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
@@ -2800,21 +3015,21 @@
       <c r="I38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="107" t="s">
+      <c r="J38" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="107">
+      <c r="K38" s="93">
         <v>1500</v>
       </c>
-      <c r="L38" s="99">
+      <c r="L38" s="85">
         <f t="shared" si="0"/>
         <v>396000</v>
       </c>
-      <c r="M38" s="99">
+      <c r="M38" s="85">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N38" s="103">
+      <c r="N38" s="89">
         <f t="shared" si="2"/>
         <v>408000</v>
       </c>
@@ -2833,11 +3048,11 @@
       <c r="G39" s="27"/>
       <c r="H39" s="25"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="103"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="89"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
@@ -2868,21 +3083,21 @@
       <c r="I40" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="107" t="s">
+      <c r="J40" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="107">
+      <c r="K40" s="93">
         <v>1500</v>
       </c>
-      <c r="L40" s="99">
+      <c r="L40" s="85">
         <f t="shared" si="0"/>
         <v>2028000</v>
       </c>
-      <c r="M40" s="99">
+      <c r="M40" s="85">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N40" s="103">
+      <c r="N40" s="89">
         <f t="shared" si="2"/>
         <v>2040000</v>
       </c>
@@ -2899,11 +3114,11 @@
       <c r="G41" s="17"/>
       <c r="H41" s="25"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="103"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="89"/>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
@@ -2921,21 +3136,21 @@
       <c r="I42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="107">
+      <c r="K42" s="93">
         <v>1500</v>
       </c>
-      <c r="L42" s="99">
+      <c r="L42" s="85">
         <f t="shared" si="0"/>
         <v>438240</v>
       </c>
-      <c r="M42" s="99">
+      <c r="M42" s="85">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="N42" s="103">
+      <c r="N42" s="89">
         <f t="shared" si="2"/>
         <v>450240</v>
       </c>
@@ -2954,11 +3169,11 @@
       <c r="G43" s="17"/>
       <c r="H43" s="25"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="103"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="89"/>
     </row>
     <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
@@ -2991,21 +3206,21 @@
       <c r="I44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="107" t="s">
+      <c r="J44" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="107">
+      <c r="K44" s="93">
         <v>10000</v>
       </c>
-      <c r="L44" s="99">
+      <c r="L44" s="85">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M44" s="99">
+      <c r="M44" s="85">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N44" s="103">
+      <c r="N44" s="89">
         <f t="shared" si="2"/>
         <v>110000</v>
       </c>
@@ -3024,11 +3239,11 @@
       <c r="G45" s="17"/>
       <c r="H45" s="25"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="103"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="89"/>
     </row>
     <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
@@ -3061,21 +3276,21 @@
       <c r="I46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="107" t="s">
+      <c r="J46" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="K46" s="107">
+      <c r="K46" s="93">
         <v>10000</v>
       </c>
-      <c r="L46" s="99">
+      <c r="L46" s="85">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M46" s="99">
+      <c r="M46" s="85">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N46" s="103">
+      <c r="N46" s="89">
         <f t="shared" si="2"/>
         <v>110000</v>
       </c>
@@ -3094,11 +3309,11 @@
       <c r="G47" s="17"/>
       <c r="H47" s="25"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="103"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="89"/>
     </row>
     <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
@@ -3131,21 +3346,21 @@
       <c r="I48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="107" t="s">
+      <c r="J48" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="107">
+      <c r="K48" s="93">
         <v>20000</v>
       </c>
-      <c r="L48" s="99">
+      <c r="L48" s="85">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M48" s="99">
+      <c r="M48" s="85">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="N48" s="103">
+      <c r="N48" s="89">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
@@ -3164,11 +3379,11 @@
       <c r="G49" s="17"/>
       <c r="H49" s="25"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="103"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="89"/>
     </row>
     <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
@@ -3201,21 +3416,21 @@
       <c r="I50" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="107" t="s">
+      <c r="J50" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K50" s="107">
+      <c r="K50" s="93">
         <v>10000</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="85">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="M50" s="99">
+      <c r="M50" s="85">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N50" s="103">
+      <c r="N50" s="89">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
@@ -3234,11 +3449,11 @@
       <c r="G51" s="17"/>
       <c r="H51" s="25"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="103"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="89"/>
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
@@ -3271,21 +3486,21 @@
       <c r="I52" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="107" t="s">
+      <c r="J52" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="K52" s="107">
+      <c r="K52" s="93">
         <v>10000</v>
       </c>
-      <c r="L52" s="99">
+      <c r="L52" s="85">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="M52" s="99">
+      <c r="M52" s="85">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="N52" s="103">
+      <c r="N52" s="89">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
@@ -3294,21 +3509,21 @@
       <c r="A53" s="60">
         <v>230700</v>
       </c>
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="109"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="95"/>
     </row>
     <row r="54" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="60">
@@ -3324,11 +3539,11 @@
       <c r="G54" s="31"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="103"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="89"/>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
@@ -3361,21 +3576,21 @@
       <c r="I55" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J55" s="107" t="s">
+      <c r="J55" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="K55" s="107">
+      <c r="K55" s="93">
         <v>50</v>
       </c>
-      <c r="L55" s="99">
+      <c r="L55" s="85">
         <f t="shared" si="0"/>
         <v>1697500</v>
       </c>
-      <c r="M55" s="99">
+      <c r="M55" s="85">
         <f t="shared" si="1"/>
         <v>485000</v>
       </c>
-      <c r="N55" s="103">
+      <c r="N55" s="89">
         <f t="shared" si="2"/>
         <v>2182500</v>
       </c>
@@ -3394,13 +3609,13 @@
       <c r="G56" s="17"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="103"/>
-    </row>
-    <row r="57" spans="1:14" ht="120" x14ac:dyDescent="0.2">
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="89"/>
+    </row>
+    <row r="57" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="A57" s="61" t="s">
         <v>9</v>
       </c>
@@ -3414,11 +3629,11 @@
       <c r="G57" s="17"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="103"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="89"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="60"/>
@@ -3432,11 +3647,11 @@
       <c r="G58" s="17"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="103"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="89"/>
     </row>
     <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
@@ -3467,21 +3682,21 @@
       <c r="I59" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J59" s="107" t="s">
+      <c r="J59" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="K59" s="107">
+      <c r="K59" s="93">
         <v>100</v>
       </c>
-      <c r="L59" s="99">
+      <c r="L59" s="85">
         <f t="shared" si="0"/>
         <v>430000</v>
       </c>
-      <c r="M59" s="99">
+      <c r="M59" s="85">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="N59" s="103">
+      <c r="N59" s="89">
         <f t="shared" si="2"/>
         <v>473000</v>
       </c>
@@ -3502,21 +3717,21 @@
       <c r="I60" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J60" s="107" t="s">
+      <c r="J60" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="107">
+      <c r="K60" s="93">
         <v>100</v>
       </c>
-      <c r="L60" s="99">
+      <c r="L60" s="85">
         <f t="shared" si="0"/>
         <v>244200</v>
       </c>
-      <c r="M60" s="99">
+      <c r="M60" s="85">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
-      <c r="N60" s="103">
+      <c r="N60" s="89">
         <f t="shared" si="2"/>
         <v>266200</v>
       </c>
@@ -3537,21 +3752,21 @@
       <c r="I61" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J61" s="107" t="s">
+      <c r="J61" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="K61" s="107">
+      <c r="K61" s="93">
         <v>125</v>
       </c>
-      <c r="L61" s="99">
+      <c r="L61" s="85">
         <f t="shared" si="0"/>
         <v>166750</v>
       </c>
-      <c r="M61" s="99">
+      <c r="M61" s="85">
         <f t="shared" si="1"/>
         <v>18125</v>
       </c>
-      <c r="N61" s="103">
+      <c r="N61" s="89">
         <f t="shared" si="2"/>
         <v>184875</v>
       </c>
@@ -3572,21 +3787,21 @@
       <c r="I62" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J62" s="107" t="s">
+      <c r="J62" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="K62" s="107">
+      <c r="K62" s="93">
         <v>175</v>
       </c>
-      <c r="L62" s="99">
+      <c r="L62" s="85">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
-      <c r="M62" s="99">
+      <c r="M62" s="85">
         <f t="shared" si="1"/>
         <v>85750</v>
       </c>
-      <c r="N62" s="103">
+      <c r="N62" s="89">
         <f t="shared" si="2"/>
         <v>1065750</v>
       </c>
@@ -3605,11 +3820,11 @@
       <c r="G63" s="27"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="103"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="89"/>
     </row>
     <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="61" t="s">
@@ -3625,11 +3840,11 @@
       <c r="G64" s="27"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="103"/>
+      <c r="J64" s="94"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="89"/>
     </row>
     <row r="65" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
@@ -3660,21 +3875,21 @@
       <c r="I65" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J65" s="107" t="s">
+      <c r="J65" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="K65" s="107">
+      <c r="K65" s="93">
         <v>50</v>
       </c>
-      <c r="L65" s="99">
+      <c r="L65" s="85">
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
-      <c r="M65" s="99">
+      <c r="M65" s="85">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="N65" s="103">
+      <c r="N65" s="89">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
@@ -3708,21 +3923,21 @@
       <c r="I66" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J66" s="107" t="s">
+      <c r="J66" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="K66" s="107">
+      <c r="K66" s="93">
         <v>50</v>
       </c>
-      <c r="L66" s="99">
+      <c r="L66" s="85">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="M66" s="99">
+      <c r="M66" s="85">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="N66" s="103">
+      <c r="N66" s="89">
         <f t="shared" si="2"/>
         <v>112500</v>
       </c>
@@ -3743,21 +3958,21 @@
       <c r="I67" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="107" t="s">
+      <c r="J67" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="K67" s="107">
+      <c r="K67" s="93">
         <v>50</v>
       </c>
-      <c r="L67" s="99">
+      <c r="L67" s="85">
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
-      <c r="M67" s="99">
+      <c r="M67" s="85">
         <f t="shared" si="1"/>
         <v>16250</v>
       </c>
-      <c r="N67" s="103">
+      <c r="N67" s="89">
         <f t="shared" si="2"/>
         <v>211250</v>
       </c>
@@ -3766,21 +3981,21 @@
       <c r="A68" s="60">
         <v>230800</v>
       </c>
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="109"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="85"/>
+      <c r="N68" s="95"/>
     </row>
     <row r="69" spans="1:34" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A69" s="60">
@@ -3796,11 +4011,11 @@
       <c r="G69" s="34"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="99"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="103"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="89"/>
     </row>
     <row r="70" spans="1:34" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="s">
@@ -3831,19 +4046,19 @@
       <c r="I70" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="105" t="s">
+      <c r="J70" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="K70" s="105">
+      <c r="K70" s="91">
         <v>100000</v>
       </c>
-      <c r="L70" s="99" t="s">
+      <c r="L70" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="105">
+      <c r="M70" s="91">
         <v>100000</v>
       </c>
-      <c r="N70" s="110">
+      <c r="N70" s="96">
         <v>100000</v>
       </c>
     </row>
@@ -3851,21 +4066,21 @@
       <c r="A71" s="60">
         <v>232100</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="103"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
+      <c r="N71" s="89"/>
     </row>
     <row r="72" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="60">
@@ -3881,13 +4096,13 @@
       <c r="G72" s="17"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="103"/>
-    </row>
-    <row r="73" spans="1:34" ht="105" x14ac:dyDescent="0.2">
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
+      <c r="N72" s="89"/>
+    </row>
+    <row r="73" spans="1:34" ht="120" x14ac:dyDescent="0.2">
       <c r="A73" s="61" t="s">
         <v>9</v>
       </c>
@@ -3901,11 +4116,11 @@
       <c r="G73" s="17"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
-      <c r="J73" s="104"/>
-      <c r="K73" s="104"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="103"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="89"/>
     </row>
     <row r="74" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
@@ -3936,21 +4151,21 @@
       <c r="I74" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J74" s="107" t="s">
+      <c r="J74" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="K74" s="107">
+      <c r="K74" s="93">
         <v>140</v>
       </c>
-      <c r="L74" s="99">
+      <c r="L74" s="85">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="M74" s="99">
+      <c r="M74" s="85">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="N74" s="103">
+      <c r="N74" s="89">
         <f t="shared" si="2"/>
         <v>28200</v>
       </c>
@@ -3984,21 +4199,21 @@
       <c r="I75" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J75" s="107" t="s">
+      <c r="J75" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="K75" s="107">
+      <c r="K75" s="93">
         <v>200</v>
       </c>
-      <c r="L75" s="99">
+      <c r="L75" s="85">
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-      <c r="M75" s="99">
+      <c r="M75" s="85">
         <f t="shared" si="1"/>
         <v>64000</v>
       </c>
-      <c r="N75" s="103">
+      <c r="N75" s="89">
         <f t="shared" si="2"/>
         <v>384000</v>
       </c>
@@ -4017,11 +4232,11 @@
       <c r="G76" s="17"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-      <c r="L76" s="99"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="103"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="85"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="89"/>
     </row>
     <row r="77" spans="1:34" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="63" t="s">
@@ -4037,11 +4252,11 @@
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="99"/>
-      <c r="M77" s="99"/>
-      <c r="N77" s="103"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="63"/>
@@ -4072,21 +4287,21 @@
       <c r="I78" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J78" s="107" t="s">
+      <c r="J78" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K78" s="107">
+      <c r="K78" s="93">
         <v>50</v>
       </c>
-      <c r="L78" s="99">
+      <c r="L78" s="85">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="M78" s="99">
+      <c r="M78" s="85">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="N78" s="103">
+      <c r="N78" s="89">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
@@ -4120,21 +4335,21 @@
       <c r="I79" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J79" s="107" t="s">
+      <c r="J79" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="K79" s="107">
+      <c r="K79" s="93">
         <v>50</v>
       </c>
-      <c r="L79" s="99">
+      <c r="L79" s="85">
         <f t="shared" si="0"/>
         <v>60900</v>
       </c>
-      <c r="M79" s="99">
+      <c r="M79" s="85">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="N79" s="103">
+      <c r="N79" s="89">
         <f t="shared" si="2"/>
         <v>67900</v>
       </c>
@@ -4168,21 +4383,21 @@
       <c r="I80" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J80" s="107" t="s">
+      <c r="J80" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="K80" s="107">
+      <c r="K80" s="93">
         <v>50</v>
       </c>
-      <c r="L80" s="99">
+      <c r="L80" s="85">
         <f t="shared" si="0"/>
         <v>14700</v>
       </c>
-      <c r="M80" s="99">
+      <c r="M80" s="85">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="N80" s="103">
+      <c r="N80" s="89">
         <f t="shared" si="2"/>
         <v>16200</v>
       </c>
@@ -4221,11 +4436,11 @@
       <c r="G81" s="35"/>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="108"/>
-      <c r="L81" s="99"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="103"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="94"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="89"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
@@ -4261,11 +4476,11 @@
       <c r="G82" s="35"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
-      <c r="J82" s="108"/>
-      <c r="K82" s="108"/>
-      <c r="L82" s="99"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="103"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="89"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
@@ -4303,21 +4518,21 @@
       <c r="I83" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J83" s="107" t="s">
+      <c r="J83" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="K83" s="107">
+      <c r="K83" s="93">
         <v>110</v>
       </c>
-      <c r="L83" s="99">
+      <c r="L83" s="85">
         <f t="shared" si="0"/>
         <v>720680</v>
       </c>
-      <c r="M83" s="99">
+      <c r="M83" s="85">
         <f t="shared" si="1"/>
         <v>47300</v>
       </c>
-      <c r="N83" s="103">
+      <c r="N83" s="89">
         <f t="shared" si="2"/>
         <v>767980</v>
       </c>
@@ -4358,21 +4573,21 @@
       <c r="I84" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J84" s="107" t="s">
+      <c r="J84" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="K84" s="107">
+      <c r="K84" s="93">
         <v>120</v>
       </c>
-      <c r="L84" s="99">
+      <c r="L84" s="85">
         <f t="shared" si="0"/>
         <v>484000</v>
       </c>
-      <c r="M84" s="99">
+      <c r="M84" s="85">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="N84" s="103">
+      <c r="N84" s="89">
         <f t="shared" si="2"/>
         <v>510400</v>
       </c>
@@ -4413,21 +4628,21 @@
       <c r="I85" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J85" s="107" t="s">
+      <c r="J85" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="107">
+      <c r="K85" s="93">
         <v>130</v>
       </c>
-      <c r="L85" s="99">
+      <c r="L85" s="85">
         <f t="shared" si="0"/>
         <v>464000</v>
       </c>
-      <c r="M85" s="99">
+      <c r="M85" s="85">
         <f t="shared" si="1"/>
         <v>18850</v>
       </c>
-      <c r="N85" s="103">
+      <c r="N85" s="89">
         <f t="shared" si="2"/>
         <v>482850</v>
       </c>
@@ -4468,21 +4683,21 @@
       <c r="I86" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J86" s="107" t="s">
+      <c r="J86" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="K86" s="107">
+      <c r="K86" s="93">
         <v>140</v>
       </c>
-      <c r="L86" s="99">
+      <c r="L86" s="85">
         <f t="shared" ref="L86:L94" si="18">J86*H86</f>
         <v>1666000</v>
       </c>
-      <c r="M86" s="99">
+      <c r="M86" s="85">
         <f t="shared" ref="M86:M104" si="19">K86*H86</f>
         <v>68600</v>
       </c>
-      <c r="N86" s="103">
+      <c r="N86" s="89">
         <f t="shared" ref="N86:N94" si="20">L86+M86</f>
         <v>1734600</v>
       </c>
@@ -4511,21 +4726,21 @@
       <c r="A87" s="60">
         <v>233100</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="94"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="94"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="108"/>
-      <c r="L87" s="99"/>
-      <c r="M87" s="99"/>
-      <c r="N87" s="103"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="89"/>
     </row>
     <row r="88" spans="1:34" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="60">
@@ -4541,11 +4756,11 @@
       <c r="G88" s="31"/>
       <c r="H88" s="30"/>
       <c r="I88" s="30"/>
-      <c r="J88" s="108"/>
-      <c r="K88" s="108"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="103"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="89"/>
     </row>
     <row r="89" spans="1:34" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A89" s="61" t="s">
@@ -4561,11 +4776,11 @@
       <c r="G89" s="31"/>
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
-      <c r="J89" s="108"/>
-      <c r="K89" s="108"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="103"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="89"/>
     </row>
     <row r="90" spans="1:34" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
@@ -4598,21 +4813,21 @@
       <c r="I90" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="107" t="s">
+      <c r="J90" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="K90" s="107">
+      <c r="K90" s="93">
         <v>60</v>
       </c>
-      <c r="L90" s="99">
+      <c r="L90" s="85">
         <f t="shared" si="18"/>
         <v>960000</v>
       </c>
-      <c r="M90" s="99">
+      <c r="M90" s="85">
         <f t="shared" si="19"/>
         <v>144000</v>
       </c>
-      <c r="N90" s="103">
+      <c r="N90" s="89">
         <f t="shared" si="20"/>
         <v>1104000</v>
       </c>
@@ -4648,21 +4863,21 @@
       <c r="I91" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J91" s="107" t="s">
+      <c r="J91" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="K91" s="107">
+      <c r="K91" s="93">
         <v>60</v>
       </c>
-      <c r="L91" s="99">
+      <c r="L91" s="85">
         <f t="shared" si="18"/>
         <v>2555000</v>
       </c>
-      <c r="M91" s="99">
+      <c r="M91" s="85">
         <f t="shared" si="19"/>
         <v>438000</v>
       </c>
-      <c r="N91" s="103">
+      <c r="N91" s="89">
         <f t="shared" si="20"/>
         <v>2993000</v>
       </c>
@@ -4694,11 +4909,11 @@
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="99"/>
-      <c r="M92" s="99"/>
-      <c r="N92" s="103"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="89"/>
     </row>
     <row r="93" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="60">
@@ -4727,11 +4942,11 @@
       </c>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="108"/>
-      <c r="L93" s="99"/>
-      <c r="M93" s="99"/>
-      <c r="N93" s="103"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="89"/>
     </row>
     <row r="94" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
@@ -4751,21 +4966,21 @@
       <c r="I94" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J94" s="107" t="s">
+      <c r="J94" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="K94" s="107">
+      <c r="K94" s="93">
         <v>21000</v>
       </c>
-      <c r="L94" s="99">
+      <c r="L94" s="85">
         <f t="shared" si="18"/>
         <v>100000</v>
       </c>
-      <c r="M94" s="99">
+      <c r="M94" s="85">
         <f t="shared" si="19"/>
         <v>21000</v>
       </c>
-      <c r="N94" s="103">
+      <c r="N94" s="89">
         <f t="shared" si="20"/>
         <v>121000</v>
       </c>
@@ -4797,11 +5012,11 @@
       </c>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
-      <c r="J95" s="108"/>
-      <c r="K95" s="108"/>
-      <c r="L95" s="99"/>
-      <c r="M95" s="99"/>
-      <c r="N95" s="103"/>
+      <c r="J95" s="94"/>
+      <c r="K95" s="94"/>
+      <c r="L95" s="85"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="62">
@@ -4817,11 +5032,11 @@
       <c r="G96" s="48"/>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="111"/>
-      <c r="K96" s="111"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="103"/>
+      <c r="J96" s="97"/>
+      <c r="K96" s="97"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="89"/>
     </row>
     <row r="97" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="63"/>
@@ -4835,11 +5050,11 @@
       <c r="G97" s="34"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="99"/>
-      <c r="M97" s="99"/>
-      <c r="N97" s="103"/>
+      <c r="J97" s="98"/>
+      <c r="K97" s="98"/>
+      <c r="L97" s="85"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="62" t="s">
@@ -4855,11 +5070,11 @@
       <c r="G98" s="17"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
-      <c r="J98" s="104"/>
-      <c r="K98" s="104"/>
-      <c r="L98" s="99"/>
-      <c r="M98" s="99"/>
-      <c r="N98" s="103"/>
+      <c r="J98" s="90"/>
+      <c r="K98" s="90"/>
+      <c r="L98" s="85"/>
+      <c r="M98" s="85"/>
+      <c r="N98" s="89"/>
     </row>
     <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
@@ -4877,21 +5092,21 @@
       <c r="I99" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J99" s="113">
+      <c r="J99" s="99">
         <v>3000</v>
       </c>
-      <c r="K99" s="114">
+      <c r="K99" s="100">
         <v>750</v>
       </c>
-      <c r="L99" s="99">
+      <c r="L99" s="85">
         <f>J99*H99</f>
         <v>240000</v>
       </c>
-      <c r="M99" s="99">
+      <c r="M99" s="85">
         <f>K99*H99</f>
         <v>60000</v>
       </c>
-      <c r="N99" s="103">
+      <c r="N99" s="89">
         <f>L99+M99</f>
         <v>300000</v>
       </c>
@@ -4912,21 +5127,21 @@
       <c r="I100" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J100" s="113">
+      <c r="J100" s="99">
         <v>3000</v>
       </c>
-      <c r="K100" s="114">
+      <c r="K100" s="100">
         <v>750</v>
       </c>
-      <c r="L100" s="99">
+      <c r="L100" s="85">
         <f>J100*H100</f>
         <v>24000</v>
       </c>
-      <c r="M100" s="99">
+      <c r="M100" s="85">
         <f t="shared" ref="M100:M101" si="23">K100*H100</f>
         <v>6000</v>
       </c>
-      <c r="N100" s="103">
+      <c r="N100" s="89">
         <f>L100+M100</f>
         <v>30000</v>
       </c>
@@ -4947,21 +5162,21 @@
       <c r="I101" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J101" s="113">
+      <c r="J101" s="99">
         <v>3000</v>
       </c>
-      <c r="K101" s="114">
+      <c r="K101" s="100">
         <v>750</v>
       </c>
-      <c r="L101" s="99">
+      <c r="L101" s="85">
         <f>J101*H101</f>
         <v>24000</v>
       </c>
-      <c r="M101" s="99">
+      <c r="M101" s="85">
         <f t="shared" si="23"/>
         <v>6000</v>
       </c>
-      <c r="N101" s="103">
+      <c r="N101" s="89">
         <f>L101+M101</f>
         <v>30000</v>
       </c>
@@ -4980,11 +5195,11 @@
       <c r="G102" s="32"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-      <c r="J102" s="104"/>
-      <c r="K102" s="104"/>
-      <c r="L102" s="99"/>
-      <c r="M102" s="99"/>
-      <c r="N102" s="103"/>
+      <c r="J102" s="90"/>
+      <c r="K102" s="90"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
+      <c r="N102" s="89"/>
     </row>
     <row r="103" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="63" t="s">
@@ -5013,11 +5228,11 @@
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
-      <c r="J103" s="104"/>
-      <c r="K103" s="104"/>
-      <c r="L103" s="99"/>
-      <c r="M103" s="99"/>
-      <c r="N103" s="103"/>
+      <c r="J103" s="90"/>
+      <c r="K103" s="90"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="89"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
@@ -5037,20 +5252,20 @@
       <c r="I104" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J104" s="113" t="s">
+      <c r="J104" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="K104" s="114">
+      <c r="K104" s="100">
         <v>15000</v>
       </c>
-      <c r="L104" s="99" t="s">
+      <c r="L104" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M104" s="99">
+      <c r="M104" s="85">
         <f t="shared" si="19"/>
         <v>30000</v>
       </c>
-      <c r="N104" s="100">
+      <c r="N104" s="86">
         <f>M104</f>
         <v>30000</v>
       </c>
@@ -5073,24 +5288,24 @@
       <c r="I105" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J105" s="115" t="s">
+      <c r="J105" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="K105" s="116">
+      <c r="K105" s="102">
         <v>10000</v>
       </c>
-      <c r="L105" s="117" t="s">
+      <c r="L105" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="M105" s="117">
+      <c r="M105" s="103">
         <f>K105*H105</f>
         <v>60000</v>
       </c>
-      <c r="N105" s="118">
+      <c r="N105" s="104">
         <f>M105</f>
         <v>60000</v>
       </c>
-      <c r="O105" s="82"/>
+      <c r="O105" s="81"/>
     </row>
     <row r="106" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="64"/>
@@ -5117,17 +5332,17 @@
       </c>
       <c r="H106" s="68"/>
       <c r="I106" s="68"/>
-      <c r="J106" s="119"/>
-      <c r="K106" s="119"/>
-      <c r="L106" s="120">
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="106">
         <f>SUM(L12:L105)</f>
         <v>16590770</v>
       </c>
-      <c r="M106" s="120">
+      <c r="M106" s="106">
         <f>SUM(M12:M105)</f>
         <v>2042975</v>
       </c>
-      <c r="N106" s="121">
+      <c r="N106" s="107">
         <f>SUM(N12:N105)</f>
         <v>18633745</v>
       </c>
@@ -5183,14 +5398,14 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="84">
+      <c r="M108" s="83">
         <v>0.5</v>
       </c>
-      <c r="N108" s="85">
+      <c r="N108" s="84">
         <f>N106*50%</f>
         <v>9316872.5</v>
       </c>
-      <c r="P108" s="83"/>
+      <c r="P108" s="82"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J109" s="7"/>
@@ -5873,6 +6088,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H8:H9"/>
@@ -5883,14 +6106,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
